--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="655">
   <si>
     <t>Property</t>
   </si>
@@ -431,21 +431,21 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -455,31 +455,7 @@
 ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:preparation</t>
-  </si>
-  <si>
-    <t>preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDispense_Preparation}
-</t>
-  </si>
-  <si>
-    <t>調剤結果</t>
-  </si>
-  <si>
-    <t>薬剤単位の調剤結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>MedicationRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
@@ -490,9 +466,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -521,6 +494,9 @@
 </t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -579,10 +555,11 @@
     <t>MedicationRequest.identifier.extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1549,6 +1526,12 @@
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.extension:instructionForDispense</t>
   </si>
   <si>
@@ -1563,6 +1546,10 @@
   </si>
   <si>
     <t>薬剤単位の調剤指示を格納する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.extension:expectedRepeatCount</t>
@@ -2393,7 +2380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO104"/>
+  <dimension ref="A1:AO103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3393,7 +3380,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3412,15 +3399,17 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>82</v>
@@ -3457,14 +3446,16 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -3488,7 +3479,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3502,13 +3493,11 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3521,22 +3510,26 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3584,7 +3577,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3593,7 +3586,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>141</v>
@@ -3605,7 +3598,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3616,18 +3609,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>81</v>
@@ -3636,26 +3629,24 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>82</v>
       </c>
@@ -3691,19 +3682,17 @@
         <v>82</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3715,32 +3704,34 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>82</v>
       </c>
@@ -3749,7 +3740,7 @@
         <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3761,16 +3752,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3808,17 +3799,19 @@
         <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AC12" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3833,37 +3826,35 @@
         <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>90</v>
@@ -3878,17 +3869,15 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>82</v>
@@ -3937,34 +3926,34 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -3976,14 +3965,14 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
@@ -3995,15 +3984,17 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>82</v>
@@ -4040,16 +4031,16 @@
         <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>176</v>
@@ -4058,13 +4049,13 @@
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4073,7 +4064,7 @@
         <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>82</v>
@@ -4084,44 +4075,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
       </c>
@@ -4145,43 +4138,43 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4190,21 +4183,21 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4221,25 +4214,25 @@
         <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4264,13 +4257,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -4288,7 +4281,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4309,21 +4302,21 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4331,7 +4324,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
@@ -4346,32 +4339,32 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>82</v>
@@ -4383,13 +4376,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4407,7 +4400,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4428,21 +4421,21 @@
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4465,32 +4458,30 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>82</v>
@@ -4526,7 +4517,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4547,21 +4538,21 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4569,7 +4560,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
@@ -4584,17 +4575,15 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4607,7 +4596,7 @@
         <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>82</v>
@@ -4643,7 +4632,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4664,21 +4653,21 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4701,15 +4690,17 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4758,7 +4749,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4779,23 +4770,25 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4813,19 +4806,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4875,13 +4868,13 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
@@ -4890,31 +4883,29 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4935,17 +4926,15 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4994,53 +4983,53 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>172</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -5052,15 +5041,17 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5097,16 +5088,16 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>176</v>
@@ -5115,13 +5106,13 @@
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5130,7 +5121,7 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -5141,44 +5132,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -5202,43 +5195,43 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5247,21 +5240,21 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5278,25 +5271,25 @@
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5321,13 +5314,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -5345,7 +5338,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5366,21 +5359,21 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5388,7 +5381,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -5403,32 +5396,32 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>82</v>
@@ -5440,13 +5433,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5464,7 +5457,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5485,21 +5478,21 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5522,32 +5515,30 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>82</v>
@@ -5583,7 +5574,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5604,21 +5595,21 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5626,7 +5617,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
@@ -5641,17 +5632,15 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5664,7 +5653,7 @@
         <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>82</v>
@@ -5700,7 +5689,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5721,21 +5710,21 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5758,15 +5747,17 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5815,7 +5806,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5836,23 +5827,25 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5861,7 +5854,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5870,19 +5863,19 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5932,13 +5925,13 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
@@ -5947,31 +5940,29 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5980,7 +5971,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5992,17 +5983,15 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6051,53 +6040,53 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>172</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -6109,15 +6098,17 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6154,16 +6145,16 @@
         <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>176</v>
@@ -6172,13 +6163,13 @@
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6187,7 +6178,7 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
@@ -6198,44 +6189,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -6259,43 +6252,43 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6304,21 +6297,21 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6335,25 +6328,25 @@
         <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6378,13 +6371,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -6402,7 +6395,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6423,21 +6416,21 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6445,7 +6438,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
@@ -6460,32 +6453,32 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>82</v>
@@ -6497,13 +6490,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6521,7 +6514,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6542,21 +6535,21 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6579,32 +6572,30 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>82</v>
@@ -6640,7 +6631,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6661,21 +6652,21 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6683,7 +6674,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6698,17 +6689,15 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6721,7 +6710,7 @@
         <v>82</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>82</v>
@@ -6757,7 +6746,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6778,21 +6767,21 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6815,15 +6804,17 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6872,7 +6863,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6893,21 +6884,21 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6915,7 +6906,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
@@ -6924,22 +6915,22 @@
         <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6965,13 +6956,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6989,10 +6980,10 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>90</v>
@@ -7004,27 +6995,27 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7032,7 +7023,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>90</v>
@@ -7041,22 +7032,22 @@
         <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7082,13 +7073,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7106,10 +7097,10 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>90</v>
@@ -7121,16 +7112,16 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7138,10 +7129,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7149,7 +7140,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -7158,22 +7149,22 @@
         <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7199,13 +7190,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7223,10 +7214,10 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>90</v>
@@ -7238,16 +7229,16 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7255,10 +7246,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7266,31 +7257,31 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7316,13 +7307,11 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7340,13 +7329,13 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -7355,16 +7344,16 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7386,7 +7375,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7395,10 +7384,10 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>304</v>
@@ -7433,11 +7422,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7461,7 +7452,7 @@
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
@@ -7470,16 +7461,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7487,10 +7478,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7507,22 +7498,22 @@
         <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7548,13 +7539,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7572,7 +7563,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7587,7 +7578,7 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -7596,7 +7587,7 @@
         <v>317</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7604,10 +7595,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7624,23 +7615,21 @@
         <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7689,7 +7678,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7710,7 +7699,7 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7721,10 +7710,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7732,7 +7721,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
@@ -7747,15 +7736,17 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7792,22 +7783,20 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>90</v>
@@ -7819,29 +7808,31 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7862,16 +7853,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7909,17 +7900,19 @@
         <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>90</v>
@@ -7934,31 +7927,29 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7979,16 +7970,16 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8038,7 +8029,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>90</v>
@@ -8053,27 +8044,27 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8081,7 +8072,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>90</v>
@@ -8093,19 +8084,19 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8155,10 +8146,10 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>90</v>
@@ -8170,27 +8161,27 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8201,7 +8192,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8213,16 +8204,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8272,13 +8263,13 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
@@ -8287,19 +8278,19 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -8315,10 +8306,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8327,7 +8318,7 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>368</v>
@@ -8338,9 +8329,7 @@
       <c r="M51" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8395,7 +8384,7 @@
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
@@ -8404,27 +8393,27 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>373</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8432,7 +8421,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>90</v>
@@ -8447,15 +8436,17 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8504,7 +8495,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8519,27 +8510,27 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>381</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8559,19 +8550,19 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8621,7 +8612,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8636,13 +8627,13 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>388</v>
@@ -8676,19 +8667,19 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8714,13 +8705,11 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8753,16 +8742,16 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8793,19 +8782,19 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8831,11 +8820,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8868,16 +8859,16 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8885,10 +8876,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8899,7 +8890,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8911,16 +8902,16 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8946,13 +8937,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8970,13 +8961,13 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
@@ -8985,27 +8976,27 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9028,16 +9019,16 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9063,31 +9054,31 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9102,19 +9093,19 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>416</v>
+        <v>276</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
@@ -9142,7 +9133,7 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>421</v>
@@ -9222,13 +9213,13 @@
         <v>425</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>426</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9262,16 +9253,16 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9336,13 +9327,13 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -9353,10 +9344,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9379,16 +9370,16 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>436</v>
+        <v>364</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9438,7 +9429,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9453,13 +9444,13 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -9470,10 +9461,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9484,7 +9475,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9496,18 +9487,18 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9555,13 +9546,13 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
@@ -9570,13 +9561,13 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -9587,10 +9578,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9610,21 +9601,21 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>446</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9648,13 +9639,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9672,7 +9663,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9687,7 +9678,7 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>82</v>
@@ -9718,7 +9709,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9730,16 +9721,16 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>197</v>
+        <v>450</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>452</v>
+        <v>364</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9765,13 +9756,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9795,7 +9786,7 @@
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
@@ -9804,13 +9795,13 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
@@ -9821,10 +9812,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9847,16 +9838,16 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9906,7 +9897,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9924,10 +9915,10 @@
         <v>460</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
@@ -9938,10 +9929,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9964,10 +9955,10 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>465</v>
@@ -10023,7 +10014,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10038,13 +10029,13 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -10055,10 +10046,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10069,7 +10060,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10081,17 +10072,15 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>473</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10140,13 +10129,13 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
@@ -10158,10 +10147,10 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -10172,10 +10161,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10198,13 +10187,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10255,7 +10244,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>475</v>
+        <v>169</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10267,16 +10256,16 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>480</v>
+        <v>170</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10287,10 +10276,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10301,7 +10290,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10313,13 +10302,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10358,16 +10347,14 @@
         <v>82</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>176</v>
@@ -10376,13 +10363,13 @@
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10391,7 +10378,7 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10402,12 +10389,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="D69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10428,13 +10417,13 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>135</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>137</v>
+        <v>484</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10473,17 +10462,19 @@
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC69" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10492,7 +10483,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>141</v>
@@ -10515,13 +10506,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>82</v>
@@ -10531,7 +10522,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10543,13 +10534,13 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10600,7 +10591,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10609,7 +10600,7 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>147</v>
+        <v>485</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>141</v>
@@ -10632,35 +10623,33 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C71" t="s" s="2">
         <v>491</v>
       </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>492</v>
+        <v>136</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>493</v>
@@ -10668,8 +10657,12 @@
       <c r="M71" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10717,7 +10710,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>183</v>
+        <v>495</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10726,7 +10719,7 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>141</v>
@@ -10738,7 +10731,7 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -10749,33 +10742,33 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>135</v>
+        <v>469</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>497</v>
@@ -10784,11 +10777,9 @@
         <v>498</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -10836,19 +10827,19 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -10857,7 +10848,7 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>133</v>
+        <v>500</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10868,10 +10859,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10894,17 +10885,15 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>476</v>
+        <v>166</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>501</v>
+        <v>167</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10953,7 +10942,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>500</v>
+        <v>169</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10965,7 +10954,7 @@
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -10974,7 +10963,7 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>504</v>
+        <v>170</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -10985,21 +10974,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11011,15 +11000,17 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11074,13 +11065,13 @@
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11089,7 +11080,7 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11100,14 +11091,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>149</v>
+        <v>492</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11120,24 +11111,26 @@
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>180</v>
+        <v>493</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>181</v>
+        <v>494</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11185,7 +11178,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>183</v>
+        <v>495</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11206,7 +11199,7 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11217,46 +11210,44 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>135</v>
+        <v>505</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11304,19 +11295,19 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>141</v>
+        <v>509</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11325,21 +11316,21 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>133</v>
+        <v>510</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11362,16 +11353,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11421,7 +11412,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11430,10 +11421,10 @@
         <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>513</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11442,21 +11433,21 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11479,7 +11470,7 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>518</v>
@@ -11488,7 +11479,7 @@
         <v>519</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11538,7 +11529,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11559,7 +11550,7 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11570,10 +11561,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11596,18 +11587,20 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>517</v>
+        <v>222</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N79" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11655,7 +11648,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11673,10 +11666,10 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>82</v>
+        <v>525</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11687,10 +11680,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11713,20 +11706,16 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>525</v>
+        <v>167</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11774,7 +11763,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>524</v>
+        <v>169</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11786,16 +11775,16 @@
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>529</v>
+        <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>530</v>
+        <v>170</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11806,21 +11795,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -11832,15 +11821,17 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11877,16 +11868,16 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>176</v>
@@ -11895,13 +11886,13 @@
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11910,7 +11901,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11921,21 +11912,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -11944,19 +11935,19 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>135</v>
+        <v>368</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>180</v>
+        <v>530</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>181</v>
+        <v>531</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11994,31 +11985,31 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>183</v>
+        <v>533</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12027,21 +12018,21 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>177</v>
+        <v>535</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>82</v>
+        <v>536</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12064,22 +12055,24 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="R83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12123,7 +12116,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12132,7 +12125,7 @@
         <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>102</v>
@@ -12144,21 +12137,21 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12178,72 +12171,70 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>375</v>
+        <v>546</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q84" t="s" s="2">
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF84" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="R84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12251,7 +12242,7 @@
         <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>102</v>
@@ -12260,24 +12251,24 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12300,16 +12291,16 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12359,7 +12350,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12368,33 +12359,33 @@
         <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>102</v>
+        <v>509</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>554</v>
+        <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>555</v>
+        <v>510</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>556</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12417,16 +12408,16 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12476,7 +12467,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12485,33 +12476,33 @@
         <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>513</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>82</v>
+        <v>560</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>514</v>
+        <v>561</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12534,17 +12525,15 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>517</v>
+        <v>166</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>561</v>
+        <v>167</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12593,7 +12582,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>560</v>
+        <v>169</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12605,16 +12594,16 @@
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>564</v>
+        <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>565</v>
+        <v>170</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
@@ -12625,21 +12614,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
@@ -12651,15 +12640,17 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12696,16 +12687,16 @@
         <v>82</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>176</v>
@@ -12714,13 +12705,13 @@
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
@@ -12729,7 +12720,7 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12740,21 +12731,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -12763,21 +12754,23 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>135</v>
+        <v>565</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>180</v>
+        <v>566</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>181</v>
+        <v>567</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -12813,31 +12806,31 @@
         <v>82</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>183</v>
+        <v>570</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -12846,21 +12839,21 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>177</v>
+        <v>571</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>82</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12877,30 +12870,30 @@
         <v>82</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>569</v>
+        <v>110</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="R90" t="s" s="2">
         <v>82</v>
       </c>
@@ -12920,13 +12913,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>82</v>
+        <v>578</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>82</v>
+        <v>579</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -12944,7 +12937,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12965,21 +12958,21 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12996,32 +12989,30 @@
         <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q91" t="s" s="2">
-        <v>581</v>
-      </c>
+      <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>82</v>
+        <v>587</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>82</v>
@@ -13039,13 +13030,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>582</v>
+        <v>82</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>583</v>
+        <v>82</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13063,7 +13054,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13084,21 +13075,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13121,24 +13112,24 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>82</v>
@@ -13180,7 +13171,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13189,7 +13180,7 @@
         <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>102</v>
@@ -13201,21 +13192,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13238,24 +13229,26 @@
         <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="O93" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>82</v>
@@ -13297,7 +13290,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13306,7 +13299,7 @@
         <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>601</v>
+        <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>102</v>
@@ -13318,21 +13311,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13352,29 +13345,27 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>110</v>
+        <v>608</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13416,7 +13407,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13437,21 +13428,21 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>594</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13474,7 +13465,7 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>612</v>
+        <v>469</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>613</v>
@@ -13482,9 +13473,7 @@
       <c r="M95" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="N95" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13533,7 +13522,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13551,13 +13540,13 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13565,10 +13554,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13591,13 +13580,13 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>476</v>
+        <v>166</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>617</v>
+        <v>167</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>618</v>
+        <v>168</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13648,7 +13637,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>616</v>
+        <v>169</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13660,16 +13649,16 @@
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>620</v>
+        <v>170</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
@@ -13680,21 +13669,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -13706,15 +13695,17 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13769,13 +13760,13 @@
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -13784,7 +13775,7 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
@@ -13795,14 +13786,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>149</v>
+        <v>492</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13815,24 +13806,26 @@
         <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>180</v>
+        <v>493</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>181</v>
+        <v>494</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -13880,7 +13873,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>183</v>
+        <v>495</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13901,7 +13894,7 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
@@ -13912,46 +13905,44 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>497</v>
+        <v>613</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>498</v>
+        <v>621</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -13975,13 +13966,11 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>623</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -13999,42 +13988,42 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>499</v>
+        <v>620</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>133</v>
+        <v>624</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>82</v>
+        <v>625</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14042,7 +14031,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>90</v>
@@ -14057,16 +14046,16 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14092,11 +14081,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y100" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="Z100" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14114,10 +14105,10 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>90</v>
@@ -14132,24 +14123,24 @@
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14172,16 +14163,16 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>197</v>
+        <v>636</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>633</v>
+        <v>364</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14207,31 +14198,31 @@
         <v>82</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>634</v>
+        <v>82</v>
       </c>
       <c r="Z101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF101" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14246,38 +14237,38 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>82</v>
+        <v>639</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>638</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>82</v>
+        <v>642</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14289,16 +14280,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>371</v>
+        <v>646</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14348,13 +14339,13 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>82</v>
@@ -14363,13 +14354,13 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>643</v>
+        <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>636</v>
+        <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
@@ -14380,14 +14371,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>646</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14406,16 +14397,16 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14465,7 +14456,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14480,135 +14471,18 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>82</v>
+        <v>653</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO104" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="647">
   <si>
     <t>Property</t>
   </si>
@@ -1024,7 +1024,7 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
 </t>
   </si>
   <si>
@@ -1046,13 +1046,6 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Request.code</t>
   </si>
   <si>
@@ -1072,25 +1065,6 @@
   </si>
   <si>
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationReference</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
-  </si>
-  <si>
-    <t>服用する薬 / Medication to be taken</t>
-  </si>
-  <si>
-    <t>要求されている薬を特定します。これは、薬物の詳細である可能性のある薬物療法を表すリソースへのリンク、または単に既知の薬物のリストから薬物を識別するコードを運ぶ属性です。 / Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合、または薬物療法が複合または延長された場合は、薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -2380,7 +2354,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO103"/>
+  <dimension ref="A1:AO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7783,14 +7757,16 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>323</v>
@@ -7808,31 +7784,29 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7853,16 +7827,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7912,7 +7886,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>90</v>
@@ -7927,27 +7901,27 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7955,7 +7929,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
@@ -7967,19 +7941,19 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8029,10 +8003,10 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>90</v>
@@ -8044,27 +8018,27 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8075,7 +8049,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -8087,16 +8061,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8146,13 +8120,13 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
@@ -8161,27 +8135,27 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8189,10 +8163,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8201,20 +8175,18 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8263,13 +8235,13 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
@@ -8278,27 +8250,27 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN50" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8306,7 +8278,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>90</v>
@@ -8321,15 +8293,17 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8378,7 +8352,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8393,27 +8367,27 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AN51" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="AO51" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8433,19 +8407,19 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8495,7 +8469,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8510,16 +8484,16 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8527,10 +8501,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8550,19 +8524,19 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8588,13 +8562,11 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8612,7 +8584,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8636,7 +8608,7 @@
         <v>387</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8644,10 +8616,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8667,10 +8639,10 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>190</v>
+        <v>389</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>390</v>
@@ -8679,7 +8651,7 @@
         <v>391</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8705,11 +8677,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8727,7 +8701,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8742,16 +8716,16 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8759,10 +8733,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8773,7 +8747,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8785,16 +8759,16 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8820,13 +8794,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8844,13 +8818,13 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
@@ -8859,27 +8833,27 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8902,16 +8876,16 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>190</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8937,13 +8911,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8961,7 +8935,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8976,27 +8950,27 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>409</v>
+        <v>276</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9016,19 +8990,19 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9078,7 +9052,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9093,16 +9067,16 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="AN57" t="s" s="2">
-        <v>411</v>
+        <v>82</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9110,10 +9084,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9136,16 +9110,16 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9195,7 +9169,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9210,13 +9184,13 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -9227,10 +9201,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9253,16 +9227,16 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>104</v>
+        <v>423</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>429</v>
+        <v>356</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9312,7 +9286,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9327,13 +9301,13 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -9344,10 +9318,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9358,7 +9332,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9370,18 +9344,18 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9429,13 +9403,13 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
@@ -9444,13 +9418,13 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -9461,10 +9435,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9484,21 +9458,21 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>439</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9522,13 +9496,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9546,7 +9520,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9561,13 +9535,13 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -9578,10 +9552,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9592,7 +9566,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9604,7 +9578,7 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>190</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>443</v>
@@ -9613,7 +9587,7 @@
         <v>444</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>445</v>
+        <v>356</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9639,13 +9613,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9663,13 +9637,13 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
@@ -9678,13 +9652,13 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>82</v>
@@ -9695,10 +9669,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9721,16 +9695,16 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9780,7 +9754,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9795,10 +9769,10 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>454</v>
@@ -9844,10 +9818,10 @@
         <v>457</v>
       </c>
       <c r="M64" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9912,13 +9886,13 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
@@ -9929,10 +9903,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9943,7 +9917,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -9955,17 +9929,15 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10014,13 +9986,13 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
@@ -10032,10 +10004,10 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -10046,10 +10018,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10072,13 +10044,13 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>469</v>
+        <v>166</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10129,7 +10101,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>468</v>
+        <v>169</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10141,16 +10113,16 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>473</v>
+        <v>170</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -10161,10 +10133,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10175,7 +10147,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10187,13 +10159,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10232,31 +10204,29 @@
         <v>82</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10265,7 +10235,7 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10276,12 +10246,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10302,13 +10274,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>136</v>
+        <v>474</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10347,14 +10319,16 @@
         <v>82</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AC68" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>176</v>
@@ -10366,7 +10340,7 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>141</v>
@@ -10389,13 +10363,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>82</v>
@@ -10405,7 +10379,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10417,13 +10391,13 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10483,7 +10457,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>141</v>
@@ -10506,44 +10480,46 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>488</v>
+        <v>136</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10591,7 +10567,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>176</v>
+        <v>487</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10600,7 +10576,7 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>141</v>
@@ -10612,7 +10588,7 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10623,46 +10599,44 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>136</v>
+        <v>461</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10710,19 +10684,19 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
@@ -10731,7 +10705,7 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>133</v>
+        <v>492</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -10742,10 +10716,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10768,17 +10742,15 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>469</v>
+        <v>166</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>497</v>
+        <v>167</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10827,7 +10799,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>496</v>
+        <v>169</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10839,7 +10811,7 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -10848,7 +10820,7 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10859,21 +10831,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -10885,15 +10857,17 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10942,19 +10916,19 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -10974,14 +10948,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>135</v>
+        <v>484</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10994,24 +10968,26 @@
         <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>137</v>
+        <v>485</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>173</v>
+        <v>486</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11059,7 +11035,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>176</v>
+        <v>487</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11080,7 +11056,7 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11091,46 +11067,44 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>136</v>
+        <v>497</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11178,19 +11152,19 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>141</v>
+        <v>501</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11199,13 +11173,13 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>133</v>
+        <v>502</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>82</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76">
@@ -11245,7 +11219,7 @@
         <v>507</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11304,10 +11278,10 @@
         <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>509</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11316,21 +11290,21 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11353,16 +11327,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11412,7 +11386,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11433,7 +11407,7 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11444,10 +11418,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11470,18 +11444,20 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11529,7 +11505,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11547,10 +11523,10 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11561,10 +11537,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11587,20 +11563,16 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>521</v>
+        <v>167</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11648,7 +11620,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>520</v>
+        <v>169</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11660,16 +11632,16 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>525</v>
+        <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>526</v>
+        <v>170</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11680,21 +11652,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11706,15 +11678,17 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11751,31 +11725,31 @@
         <v>82</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -11795,21 +11769,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -11818,19 +11792,19 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>136</v>
+        <v>360</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>137</v>
+        <v>522</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>173</v>
+        <v>523</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>139</v>
+        <v>524</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11868,31 +11842,31 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>176</v>
+        <v>525</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>82</v>
+        <v>526</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11901,13 +11875,13 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>170</v>
+        <v>527</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>82</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82">
@@ -11938,7 +11912,7 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>530</v>
@@ -11953,7 +11927,9 @@
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="R82" t="s" s="2">
         <v>82</v>
       </c>
@@ -11997,7 +11973,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12006,7 +11982,7 @@
         <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>102</v>
@@ -12052,27 +12028,25 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>368</v>
+        <v>538</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q83" t="s" s="2">
-        <v>541</v>
-      </c>
+      <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12116,7 +12090,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12125,7 +12099,7 @@
         <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>102</v>
@@ -12134,7 +12108,7 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>543</v>
@@ -12174,16 +12148,16 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12242,33 +12216,33 @@
         <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>102</v>
+        <v>501</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>552</v>
+        <v>503</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12294,13 +12268,13 @@
         <v>505</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12350,42 +12324,42 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AG85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12408,17 +12382,15 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>513</v>
+        <v>166</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>557</v>
+        <v>167</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12467,7 +12439,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>556</v>
+        <v>169</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12479,16 +12451,16 @@
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>560</v>
+        <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>561</v>
+        <v>170</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
@@ -12499,21 +12471,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12525,15 +12497,17 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12570,31 +12544,31 @@
         <v>82</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -12614,21 +12588,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
@@ -12637,21 +12611,23 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>136</v>
+        <v>557</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>137</v>
+        <v>558</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>173</v>
+        <v>559</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12687,31 +12663,31 @@
         <v>82</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>176</v>
+        <v>562</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
@@ -12720,21 +12696,21 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>170</v>
+        <v>563</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>82</v>
+        <v>564</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12751,13 +12727,13 @@
         <v>82</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>565</v>
+        <v>110</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>566</v>
@@ -12765,16 +12741,16 @@
       <c r="M89" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="O89" t="s" s="2">
+      <c r="P89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q89" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="P89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
         <v>82</v>
       </c>
@@ -12794,13 +12770,13 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>82</v>
+        <v>570</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -12818,7 +12794,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12839,21 +12815,21 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12870,32 +12846,30 @@
         <v>82</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q90" t="s" s="2">
-        <v>577</v>
-      </c>
+      <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>82</v>
+        <v>579</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>82</v>
@@ -12913,13 +12887,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>578</v>
+        <v>82</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>579</v>
+        <v>82</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -12995,7 +12969,7 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>584</v>
@@ -13063,7 +13037,7 @@
         <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>589</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>102</v>
@@ -13075,13 +13049,13 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="92">
@@ -13112,7 +13086,7 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>592</v>
@@ -13120,16 +13094,18 @@
       <c r="M92" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="O92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>82</v>
@@ -13171,7 +13147,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13180,7 +13156,7 @@
         <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>102</v>
@@ -13198,7 +13174,7 @@
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93">
@@ -13226,29 +13202,27 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>604</v>
+        <v>82</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>82</v>
@@ -13290,7 +13264,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13311,21 +13285,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>590</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13348,17 +13322,15 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>608</v>
+        <v>461</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13407,7 +13379,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13425,13 +13397,13 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>82</v>
+        <v>607</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13439,10 +13411,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13465,13 +13437,13 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>469</v>
+        <v>166</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>613</v>
+        <v>167</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>614</v>
+        <v>168</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13522,7 +13494,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>612</v>
+        <v>169</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13534,16 +13506,16 @@
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>615</v>
+        <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>616</v>
+        <v>170</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>82</v>
@@ -13554,21 +13526,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13580,15 +13552,17 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13637,19 +13611,19 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
@@ -13669,14 +13643,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>135</v>
+        <v>484</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13689,24 +13663,26 @@
         <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>137</v>
+        <v>485</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>173</v>
+        <v>486</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -13754,7 +13730,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>176</v>
+        <v>487</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13775,7 +13751,7 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
@@ -13786,46 +13762,44 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>493</v>
+        <v>605</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>494</v>
+        <v>613</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -13849,13 +13823,11 @@
         <v>82</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y98" s="2"/>
       <c r="Z98" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -13873,42 +13845,42 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>495</v>
+        <v>612</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>82</v>
+        <v>607</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>133</v>
+        <v>616</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>82</v>
+        <v>617</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13916,7 +13888,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>90</v>
@@ -13934,13 +13906,13 @@
         <v>190</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="M99" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13966,9 +13938,11 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y99" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="Z99" t="s" s="2">
         <v>623</v>
       </c>
@@ -13988,10 +13962,10 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>90</v>
@@ -14006,24 +13980,24 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14046,16 +14020,16 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>190</v>
+        <v>628</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>629</v>
+        <v>356</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14081,13 +14055,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>630</v>
+        <v>82</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>631</v>
+        <v>82</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14105,7 +14079,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14120,38 +14094,38 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>82</v>
+        <v>631</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AM100" t="s" s="2">
-        <v>633</v>
-      </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>634</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>82</v>
+        <v>634</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14163,16 +14137,16 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14222,13 +14196,13 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>82</v>
@@ -14237,13 +14211,13 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
@@ -14254,14 +14228,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>642</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14280,16 +14254,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14339,7 +14313,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14354,135 +14328,18 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>82</v>
+        <v>645</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO103" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -850,7 +850,7 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>オーダの現在の状態を示すコード。</t>
+    <t>オーダの現在の状態を示すコード</t>
   </si>
   <si>
     <t>オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
